--- a/pred_ohlcv/54_21/2019-11-01 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ETZ ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-97165.6182</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>73578.2181</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>174554.1574</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>367064.3667</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>366664.3667</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>363502.2660999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>366298.6723</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>286820.6903</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>251664.1919</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,7 +808,7 @@
         <v>333378.1663999999</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>392272.3817999999</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>412320.4707999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>412320.4707999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>412330.4707999999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>412285.4707999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>412241.4707999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>412251.4707999999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>375964.4879999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>375964.4879999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>352069.0349999999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>284905.6585999998</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>409009.9268044774</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>323696.7495044774</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>280476.8413044774</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>79146.07910447742</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>58736.12970447743</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>19892.72610447742</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>19892.72610447742</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>199837.6351044774</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>146700.1795044774</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>135614.2069044774</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>134748.2069044774</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>682677.8002044774</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>682677.8002044774</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>695958.9013044774</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>690155.6223044774</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>690155.6223044774</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>690189.1223044774</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>690189.1223044774</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>680278.4480044774</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>359678.3202044774</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>310751.2809044774</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>310751.2809044774</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>327692.8892044774</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>356526.8076044774</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>342269.7769044774</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>342269.7769044774</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>342573.7769044774</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>342843.9018044774</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>342843.9018044774</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>342843.9018044774</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>343146.9322044775</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>293146.9322044775</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>293146.9322044775</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-613442.0430607793</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-648633.7330607793</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-653906.2678607793</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-653895.2678607793</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-653884.2678607793</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-653884.2678607793</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-830935.494488923</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-01 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ETZ ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-97165.6182</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>73578.2181</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>174554.1574</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>424113.6488</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>367064.3667</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>366664.3667</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>363502.2660999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>366298.6723</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>286820.6903</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>251664.1919</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>251664.1919</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>251664.1919</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>350709.4190999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>333378.1663999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>392272.3817999999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>386505.7226999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>412320.4707999999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>412320.4707999999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>412330.4707999999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>412285.4707999999</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>412241.4707999999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>412251.4707999999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>375964.4879999999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>375964.4879999999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>352069.0349999999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>284905.6585999998</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>409009.9268044774</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>323696.7495044774</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>280476.8413044774</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>79146.07910447742</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>58736.12970447743</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>19892.72610447742</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>19892.72610447742</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>199837.6351044774</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>146700.1795044774</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>135614.2069044774</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>134748.2069044774</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>682677.8002044774</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>682677.8002044774</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>695958.9013044774</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>690155.6223044774</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>690155.6223044774</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>690189.1223044774</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>690189.1223044774</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>680278.4480044774</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>359678.3202044774</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>310751.2809044774</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-613442.0430607793</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-648633.7330607793</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-653906.2678607793</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-653895.2678607793</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-653884.2678607793</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-653884.2678607793</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-795781.087488923</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-795770.087488923</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-795674.041488923</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
